--- a/ModelTraining/Models/Ensemble/AdaBoostRegressorBenchmark.xlsx
+++ b/ModelTraining/Models/Ensemble/AdaBoostRegressorBenchmark.xlsx
@@ -479,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>7.013364219528288</v>
+        <v>10.08677976748346</v>
       </c>
       <c r="F2" t="n">
-        <v>1.563858105175581</v>
+        <v>1.982163051966514</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5956806174094931</v>
+        <v>0.1936338431263439</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>6.279452729270897</v>
+        <v>9.635115734468156</v>
       </c>
       <c r="F3" t="n">
-        <v>1.324586905639326</v>
+        <v>1.876121013669253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6379905034112363</v>
+        <v>0.2297411636881241</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>5.79963996806512</v>
+        <v>9.002853604636213</v>
       </c>
       <c r="F4" t="n">
-        <v>1.134591513885707</v>
+        <v>1.7175899044724</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6656516362566676</v>
+        <v>0.2802860150204473</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>7.698710535312938</v>
+        <v>10.789857869266</v>
       </c>
       <c r="F5" t="n">
-        <v>1.899239453051415</v>
+        <v>2.507317193046481</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5561705063436564</v>
+        <v>0.1374277595213425</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>7.006122072576565</v>
+        <v>10.626151874059</v>
       </c>
       <c r="F6" t="n">
-        <v>1.757497274592305</v>
+        <v>2.4895996542852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5960981260818642</v>
+        <v>0.1505148871532741</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>6.342136710094175</v>
+        <v>9.762707854168175</v>
       </c>
       <c r="F7" t="n">
-        <v>1.590045127697262</v>
+        <v>2.259172142577704</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6343767814325298</v>
+        <v>0.2195410830299205</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>7.981074181366234</v>
+        <v>11.40201970920793</v>
       </c>
       <c r="F8" t="n">
-        <v>1.972236686274031</v>
+        <v>2.640696912204143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5398922850129593</v>
+        <v>0.08848978311682376</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>7.400968229962559</v>
+        <v>11.44121351274578</v>
       </c>
       <c r="F9" t="n">
-        <v>1.844463286884988</v>
+        <v>2.638265343091528</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5733353050482695</v>
+        <v>0.08535651784677545</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>13.21213283175999</v>
+        <v>18.30459480980873</v>
       </c>
       <c r="F10" t="n">
-        <v>3.05507082738868</v>
+        <v>3.712976353278274</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2383225479197686</v>
+        <v>-0.4633219035372529</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>7.043971621225062</v>
+        <v>10.01257175343638</v>
       </c>
       <c r="F11" t="n">
-        <v>1.615013969464083</v>
+        <v>2.054612337237419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5939161053480374</v>
+        <v>0.1995662449905412</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>6.317742167086622</v>
+        <v>9.638744627291498</v>
       </c>
       <c r="F12" t="n">
-        <v>1.394244972327232</v>
+        <v>1.978685536274874</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6357831231336963</v>
+        <v>0.2294510595689584</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>5.788150109425231</v>
+        <v>8.924712824351674</v>
       </c>
       <c r="F13" t="n">
-        <v>1.203587358882608</v>
+        <v>1.801773200800383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6663140248630367</v>
+        <v>0.2865328135176521</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>7.698710535312938</v>
+        <v>10.9643123099862</v>
       </c>
       <c r="F14" t="n">
-        <v>1.899239453051415</v>
+        <v>2.563426274932812</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5561705063436564</v>
+        <v>0.1234813702716649</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>7.352700459995008</v>
+        <v>11.34103483544833</v>
       </c>
       <c r="F15" t="n">
-        <v>1.89945070793871</v>
+        <v>2.692996430858489</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5761179346595993</v>
+        <v>0.09336508915250041</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7.279314774853782</v>
+        <v>11.02053569852597</v>
       </c>
       <c r="F16" t="n">
-        <v>1.906663938915317</v>
+        <v>2.587557177463951</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5803486082676609</v>
+        <v>0.1189867110455982</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>7.981074181366234</v>
+        <v>11.40201970920793</v>
       </c>
       <c r="F17" t="n">
-        <v>1.972236686274031</v>
+        <v>2.640696912204143</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5398922850129593</v>
+        <v>0.08848978311682376</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>7.400968229962559</v>
+        <v>11.44121351274578</v>
       </c>
       <c r="F18" t="n">
-        <v>1.844463286884988</v>
+        <v>2.638265343091528</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5733353050482695</v>
+        <v>0.08535651784677545</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>14.61025423061894</v>
+        <v>23.13974408159993</v>
       </c>
       <c r="F19" t="n">
-        <v>3.251330892784817</v>
+        <v>4.349686086511766</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1577210615176771</v>
+        <v>-0.8498576291187243</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>7.341966307854524</v>
+        <v>10.27456678128292</v>
       </c>
       <c r="F20" t="n">
-        <v>1.754651949127961</v>
+        <v>2.26940482829159</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5767367569009979</v>
+        <v>0.1786216096763381</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>6.472068797926964</v>
+        <v>9.871645667994313</v>
       </c>
       <c r="F21" t="n">
-        <v>1.510028514697854</v>
+        <v>2.175874192038457</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6268862162933388</v>
+        <v>0.2108322811825379</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5.864445022814304</v>
+        <v>9.046923328262753</v>
       </c>
       <c r="F22" t="n">
-        <v>1.326296471244999</v>
+        <v>1.957795048889328</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6619156346881228</v>
+        <v>0.2767629546885686</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>7.698710535312938</v>
+        <v>10.9643123099862</v>
       </c>
       <c r="F23" t="n">
-        <v>1.899239453051415</v>
+        <v>2.563426274932812</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5561705063436564</v>
+        <v>0.1234813702716649</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>7.352700459995008</v>
+        <v>11.34103483544833</v>
       </c>
       <c r="F24" t="n">
-        <v>1.89945070793871</v>
+        <v>2.692996430858489</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5761179346595993</v>
+        <v>0.09336508915250041</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9.161680945837585</v>
+        <v>13.14682448941866</v>
       </c>
       <c r="F25" t="n">
-        <v>2.357774849442335</v>
+        <v>2.98812208732648</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4718304842634555</v>
+        <v>-0.05099492434639141</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>7.981074181366234</v>
+        <v>11.40201970920793</v>
       </c>
       <c r="F26" t="n">
-        <v>1.972236686274031</v>
+        <v>2.640696912204143</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5398922850129593</v>
+        <v>0.08848978311682376</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>7.400968229962559</v>
+        <v>11.44121351274578</v>
       </c>
       <c r="F27" t="n">
-        <v>1.844463286884988</v>
+        <v>2.638265343091528</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5733353050482695</v>
+        <v>0.08535651784677545</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>15.16789104676266</v>
+        <v>27.6574986234277</v>
       </c>
       <c r="F28" t="n">
-        <v>3.302614208486421</v>
+        <v>4.912789929284439</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1255733837191711</v>
+        <v>-1.211019908019262</v>
       </c>
     </row>
   </sheetData>
